--- a/2018_CCSB_LoadsData_WY2010-2017/Sites/Rumsey_11451800/1_wy2016_2017/rloadest/1_fMeHg/1_Flux Files/Other models/1_Rumsey_fMeHg_m4_Flux_Annual_slrose.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Sites/Rumsey_11451800/1_wy2016_2017/rloadest/1_fMeHg/1_Flux Files/Other models/1_Rumsey_fMeHg_m4_Flux_Annual_slrose.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Sites\Rumsey_11451800\1_wy2016_2017\rloadest\1_fMeHg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Sites\Rumsey_11451800\1_wy2016_2017\rloadest\1_fMeHg\1_Flux Files\Other models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23D60FF-0F13-4CD3-9FD0-4E14B4340427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7025345-98BA-4C7F-B8FA-DE3813921D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Rumsey_fMeHg_m4_Flux_Annual" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,11 +902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,8 +960,8 @@
         <v>2.9414185671152202E-4</v>
       </c>
       <c r="J2" s="2">
-        <f>D2/E2*100</f>
-        <v>215.19158786793048</v>
+        <f>E2/D2*100</f>
+        <v>46.470218000051659</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -982,8 +990,8 @@
         <v>3.6395674706168202E-4</v>
       </c>
       <c r="J3" s="2">
-        <f>D3/E3*100</f>
-        <v>387.90366226960458</v>
+        <f>E3/D3*100</f>
+        <v>25.779596772792786</v>
       </c>
     </row>
   </sheetData>
